--- a/biology/Botanique/Austrocylindropuntia_floccosa/Austrocylindropuntia_floccosa.xlsx
+++ b/biology/Botanique/Austrocylindropuntia_floccosa/Austrocylindropuntia_floccosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrocylindropuntia floccosa est une espèce de plantes dicotylédones de la famille des Cactaceae, originaire d'Amérique du Sud.
 </t>
@@ -513,29 +525,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (22 avril 2019)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (22 avril 2019) :
 Austrocylindropuntia floccosa subsp. yanganucensis (Rauh &amp; Backeb.) Ostolaza
 Austrocylindropuntia lauliacoana F.Ritter
 Austrocylindropuntia machacana F.Ritter
 Austrocylindropuntia tephrocactoides Rauh &amp; Backeb.
 Cylindropuntia tephrocactoides Rauh &amp; Backeb.
-Maihueniopsis floccosa (Salm-Dyck ex Winterfeld) R. Kiesling[3]
+Maihueniopsis floccosa (Salm-Dyck ex Winterfeld) R. Kiesling
 Opuntia atroviridis Werderm. &amp; Backeb.
-Opuntia crispicrinita (Rauh &amp; Backeberg) G.D. Rowley[3]
-Opuntia cylindrolanata (Rauh &amp; Backeberg) G.D. Rowley[3]
+Opuntia crispicrinita (Rauh &amp; Backeberg) G.D. Rowley
+Opuntia cylindrolanata (Rauh &amp; Backeberg) G.D. Rowley
 Opuntia floccosa Salm-Dyck
 Opuntia tephrocactoides (Rauh &amp; Backeb.) G.D. Rowley
 Tephrocactus atroviridis Backeb.
 Tephrocactus crispicrinitus Rauh &amp; Backeb.
-Tephrocactus cylindrolanatus Rauh &amp; Backeberg[3]
+Tephrocactus cylindrolanatus Rauh &amp; Backeberg
 Tephrocactus floccosus (Salm-Dyck) Backeb.
-Tephrocactus hirschii Backeberg[3]
+Tephrocactus hirschii Backeberg
 Tephrocactus pseudo-udonis Rauh &amp; Backeb.
 Tephrocactus udonis Backeb.
 Tephrocactus verticosus Backeb.
-Liste des sous-espèces
-Selon Tropicos                                           (22 avril 2019)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Austrocylindropuntia_floccosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Austrocylindropuntia_floccosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (22 avril 2019) :
 Austrocylindropuntia floccosa subsp. yanganucensis Ostolaza
 </t>
         </is>
